--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_5_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_5_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.182256559459767e-16</v>
+        <v>2.259995978880726e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>37.22507865815703</v>
+        <v>30.7447986016462</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.662421912935955, 43.78773540337811]</t>
+          <t>[23.718961859237965, 37.77063534405444]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.452868674633118</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2516054816103477, 1.654131867655888]</t>
+          <t>[1.553500271144502, 2.0818161528292727]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.26132397630648</v>
+        <v>54.76603129296286</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.10959991749659, 61.41304803511637]</t>
+          <t>[50.628822282845135, 58.90324030308058]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.62726726726753</v>
+        <v>17.42662662662691</v>
       </c>
       <c r="X2" t="n">
-        <v>17.85113113113139</v>
+        <v>16.39575575575602</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.40340340340368</v>
+        <v>18.45749749749779</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.182256559459767e-16</v>
+        <v>2.259995978880726e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>39.63973329228624</v>
+        <v>44.51316611264501</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[31.31755894873551, 47.961907635836965]</t>
+          <t>[36.03426077116279, 52.99207145412723]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.868000500574466</v>
+        <v>-2.943474197958005</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.1070005422890046, -2.629000458859928]</t>
+          <t>[-3.157316340544698, -2.7296320553713116]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>56.88649331596177</v>
+        <v>59.74528266148919</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.88193978092853, 61.89104685099501]</t>
+          <t>[54.61722966932098, 64.8733356536574]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.4935735735738</v>
+        <v>11.7538738738741</v>
       </c>
       <c r="X3" t="n">
-        <v>10.53577577577599</v>
+        <v>10.89995995996017</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.45137137137162</v>
+        <v>12.60778778778804</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_5_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_5_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.259995978880726e-16</v>
+        <v>1.87379413438845e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>30.7447986016462</v>
+        <v>37.15664094460629</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[23.718961859237965, 37.77063534405444]</t>
+          <t>[29.858455158717675, 44.4548267304949]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.817658211986887</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 2.0818161528292727]</t>
+          <t>[1.1006580868432714, 1.528342372016656]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.76603129296286</v>
+        <v>56.59976836301055</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.628822282845135, 58.90324030308058]</t>
+          <t>[52.39277270888097, 60.80676401714014]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.42662662662691</v>
+        <v>19.00270270270295</v>
       </c>
       <c r="X2" t="n">
-        <v>16.39575575575602</v>
+        <v>18.18486486486511</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.45749749749779</v>
+        <v>19.8205405405408</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.259995978880726e-16</v>
+        <v>1.87379413438845e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.51316611264501</v>
+        <v>41.7811532413041</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.03426077116279, 52.99207145412723]</t>
+          <t>[31.944201752744846, 51.61810472986336]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.943474197958005</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.157316340544698, -2.7296320553713116]</t>
+          <t>[2.0692372032653497, 2.5220793875665803]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.74528266148919</v>
+        <v>59.61815161860729</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.61722966932098, 64.8733356536574]</t>
+          <t>[54.6665822392295, 64.56972099798507]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.7538738738741</v>
+        <v>15.71355355355383</v>
       </c>
       <c r="X3" t="n">
-        <v>10.89995995996017</v>
+        <v>14.82130130130156</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.60778778778804</v>
+        <v>16.6058058058061</v>
       </c>
     </row>
   </sheetData>
